--- a/학습자료/단답형/선사시대 유적.xlsx
+++ b/학습자료/단답형/선사시대 유적.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44">
